--- a/rhla_analysis/rhla1_3_uniform_result/k8.xlsx
+++ b/rhla_analysis/rhla1_3_uniform_result/k8.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0007790364082337016</v>
+        <v>0.0007790364082337027</v>
       </c>
       <c r="B2" t="n">
         <v>0.09167087186972701</v>
@@ -466,7 +466,7 @@
         <v>0.175618073316283</v>
       </c>
       <c r="D2" t="n">
-        <v>117.6721279016614</v>
+        <v>117.6721279016612</v>
       </c>
     </row>
     <row r="3">
@@ -480,12 +480,12 @@
         <v>0.1730605285592498</v>
       </c>
       <c r="D3" t="n">
-        <v>60.0590744145258</v>
+        <v>60.05907441452582</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.001533809902416143</v>
+        <v>0.001533809902416137</v>
       </c>
       <c r="B4" t="n">
         <v>0.09377102272858996</v>
@@ -494,12 +494,12 @@
         <v>0.1679454390451833</v>
       </c>
       <c r="D4" t="n">
-        <v>61.13601338788893</v>
+        <v>61.13601338788917</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0008489837033403485</v>
+        <v>0.0008489837033403543</v>
       </c>
       <c r="B5" t="n">
         <v>0.1078563556210517</v>
@@ -508,12 +508,12 @@
         <v>0.1487638533674339</v>
       </c>
       <c r="D5" t="n">
-        <v>127.0417267100512</v>
+        <v>127.0417267100503</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.003103249389962148</v>
+        <v>0.003103249389962162</v>
       </c>
       <c r="B6" t="n">
         <v>0.1070028842682535</v>
@@ -522,12 +522,12 @@
         <v>0.1364023870417732</v>
       </c>
       <c r="D6" t="n">
-        <v>34.48091687840746</v>
+        <v>34.48091687840729</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.001484072305168951</v>
+        <v>0.001484072305168953</v>
       </c>
       <c r="B7" t="n">
         <v>0.08444109607453738</v>
@@ -536,12 +536,12 @@
         <v>0.1555839727195226</v>
       </c>
       <c r="D7" t="n">
-        <v>56.89823587464925</v>
+        <v>56.89823587464915</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.001798502284405831</v>
+        <v>0.001798502284405832</v>
       </c>
       <c r="B8" t="n">
         <v>0.08487518282113725</v>
@@ -550,12 +550,12 @@
         <v>0.1662404092071611</v>
       </c>
       <c r="D8" t="n">
-        <v>47.1921462413807</v>
+        <v>47.19214624138068</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.001082722020978885</v>
+        <v>0.001082722020978873</v>
       </c>
       <c r="B9" t="n">
         <v>0.09858839982431135</v>
@@ -564,12 +564,12 @@
         <v>0.1615515771526002</v>
       </c>
       <c r="D9" t="n">
-        <v>91.05605863190803</v>
+        <v>91.05605863190908</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.002675650030937444</v>
+        <v>0.002675650030937421</v>
       </c>
       <c r="B10" t="n">
         <v>0.109386491688261</v>
@@ -578,12 +578,12 @@
         <v>0.1589940323955669</v>
       </c>
       <c r="D10" t="n">
-        <v>40.88221195727016</v>
+        <v>40.8822119572705</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.002615060517616621</v>
+        <v>0.002615060517616627</v>
       </c>
       <c r="B11" t="n">
         <v>0.09652009222144374</v>
@@ -592,7 +592,7 @@
         <v>0.1530264279624893</v>
       </c>
       <c r="D11" t="n">
-        <v>36.90931493601251</v>
+        <v>36.90931493601242</v>
       </c>
     </row>
   </sheetData>
